--- a/docs/TRIRIGA_Maximo_Field_Mapping-Final.xlsx
+++ b/docs/TRIRIGA_Maximo_Field_Mapping-Final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anshikagautam/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendanmonte/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{954BB0E6-201B-CC47-9FE0-30209781A3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6785EBD2-3BC1-6C4F-89B9-732AAB05E013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="1" xr2:uid="{2DA8C76C-D175-234A-B942-BCDA1881ED00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="3" xr2:uid="{2DA8C76C-D175-234A-B942-BCDA1881ED00}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-Req" sheetId="9" r:id="rId1"/>
@@ -20,11 +20,10 @@
     <sheet name="Property" sheetId="2" state="hidden" r:id="rId5"/>
     <sheet name="Building" sheetId="3" state="hidden" r:id="rId6"/>
     <sheet name="Floor" sheetId="4" state="hidden" r:id="rId7"/>
-    <sheet name="Work Task" sheetId="7" r:id="rId8"/>
-    <sheet name="Service Request" sheetId="8" r:id="rId9"/>
+    <sheet name="Work Task" sheetId="7" state="hidden" r:id="rId8"/>
+    <sheet name="Service Request" sheetId="8" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -895,18 +894,12 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1269,19 +1262,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1307,10 +1300,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1319,7 +1312,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1331,23 +1324,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1359,14 +1346,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1377,12 +1361,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1392,11 +1370,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1810,7 +1803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F84BE60-8512-AB45-83E5-0A9674CBE769}">
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -1830,10 +1823,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="87"/>
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -2516,10 +2509,10 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="74"/>
+      <c r="B28" s="87"/>
     </row>
     <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -2976,7 +2969,7 @@
       <c r="B44" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="C44" s="77" t="s">
+      <c r="C44" s="75" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="44" t="s">
@@ -2997,11 +2990,11 @@
       <c r="I44" s="44">
         <v>20</v>
       </c>
-      <c r="J44" s="78" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="76" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>16</v>
       </c>
@@ -3017,7 +3010,7 @@
       <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="81" t="s">
+      <c r="F45" s="79" t="s">
         <v>152</v>
       </c>
       <c r="G45" s="3" t="s">
@@ -3049,7 +3042,7 @@
       <c r="E46" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F46" s="81" t="s">
+      <c r="F46" s="79" t="s">
         <v>210</v>
       </c>
       <c r="G46" s="3" t="s">
@@ -3069,28 +3062,28 @@
       <c r="A47" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="B47" s="75" t="s">
+      <c r="B47" s="88" t="s">
         <v>200</v>
       </c>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="13"/>
     </row>
     <row r="48" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
-      <c r="B48" s="75" t="s">
+      <c r="B48" s="88" t="s">
         <v>201</v>
       </c>
-      <c r="C48" s="75"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="59"/>
@@ -3126,8 +3119,8 @@
       </c>
     </row>
     <row r="54" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="82"/>
-      <c r="B54" s="82"/>
+      <c r="A54" s="89"/>
+      <c r="B54" s="89"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
@@ -3139,16 +3132,16 @@
       <c r="F55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="83"/>
-      <c r="B56" s="83"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="83"/>
-      <c r="J56" s="84"/>
+      <c r="A56" s="80"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="80"/>
+      <c r="I56" s="80"/>
+      <c r="J56" s="81"/>
     </row>
     <row r="57" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
@@ -3156,7 +3149,7 @@
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
-      <c r="F57" s="85"/>
+      <c r="F57" s="82"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
@@ -3224,7 +3217,7 @@
     </row>
     <row r="63" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
-      <c r="B63" s="79"/>
+      <c r="B63" s="77"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
@@ -3236,7 +3229,7 @@
     </row>
     <row r="64" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
-      <c r="B64" s="79"/>
+      <c r="B64" s="77"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
@@ -3332,7 +3325,7 @@
     </row>
     <row r="72" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
-      <c r="B72" s="79"/>
+      <c r="B72" s="77"/>
       <c r="C72" s="13"/>
       <c r="D72" s="59"/>
       <c r="E72" s="59"/>
@@ -3348,9 +3341,9 @@
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
-      <c r="F73" s="80"/>
-      <c r="G73" s="80"/>
-      <c r="H73" s="80"/>
+      <c r="F73" s="78"/>
+      <c r="G73" s="78"/>
+      <c r="H73" s="78"/>
       <c r="I73" s="13"/>
       <c r="J73" s="13"/>
     </row>
@@ -3419,10 +3412,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="87"/>
       <c r="C1" s="5"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -4192,14 +4185,14 @@
       <c r="A27" t="s">
         <v>195</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="91" t="s">
         <v>239</v>
       </c>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -4217,10 +4210,10 @@
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="74"/>
+      <c r="B29" s="87"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -4969,12 +4962,12 @@
       <c r="L54" s="23"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B55" s="86" t="s">
+      <c r="B55" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90"/>
       <c r="K55" s="27"/>
       <c r="L55" s="23"/>
     </row>
@@ -4997,8 +4990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F64A21-F2E8-554E-8C30-08664B2DDCBD}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5015,10 +5008,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="87"/>
       <c r="C1" s="5"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -5358,7 +5351,7 @@
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="92" t="s">
         <v>248</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -5453,7 +5446,7 @@
       <c r="B16" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="75" t="s">
         <v>155</v>
       </c>
       <c r="D16" s="44" t="s">
@@ -5483,16 +5476,16 @@
       <c r="B17" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="88">
+      <c r="C17" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="83">
         <v>20</v>
       </c>
-      <c r="F17" s="92" t="s">
+      <c r="F17" s="86" t="s">
         <v>245</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -5547,10 +5540,10 @@
       <c r="J20" s="54"/>
     </row>
     <row r="22" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="74"/>
+      <c r="B22" s="87"/>
     </row>
     <row r="25" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -5915,7 +5908,7 @@
       <c r="E37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="88" t="s">
+      <c r="F37" s="83" t="s">
         <v>139</v>
       </c>
       <c r="G37" s="3" t="s">
@@ -5947,7 +5940,7 @@
       <c r="E38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="88" t="s">
+      <c r="F38" s="83" t="s">
         <v>140</v>
       </c>
       <c r="G38" s="3" t="s">
@@ -5967,7 +5960,7 @@
       <c r="A39" s="3">
         <v>14</v>
       </c>
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="85" t="s">
         <v>245</v>
       </c>
       <c r="C39" s="11" t="s">
@@ -5982,13 +5975,13 @@
       <c r="F39" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="G39" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="I39" s="88">
+      <c r="G39" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="83">
         <v>20</v>
       </c>
       <c r="J39" s="4" t="s">
@@ -6002,9 +5995,9 @@
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="58"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
       <c r="J40" s="12"/>
     </row>
     <row r="41" spans="1:10" ht="19" x14ac:dyDescent="0.25">
